--- a/input_file/New.xlsx
+++ b/input_file/New.xlsx
@@ -70,13 +70,13 @@
     <t>[{"regex":{"status":"down"},"score":0},{"regex":{"status":"reachable"},"score":100}]</t>
   </si>
   <si>
-    <t>[{"regex":{"status":"down"},"score":0},{"regex":{"status":"up"},"score":100}]</t>
-  </si>
-  <si>
     <t>CHN_2</t>
   </si>
   <si>
     <t>10.1.1.3</t>
+  </si>
+  <si>
+    <t>[{"regex":{"status":"down"},"score":0},{"regex":{"bits":"0|0"},"score":100}]</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,7 +921,7 @@
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="67.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,15 +999,15 @@
         <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1051,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
